--- a/WebContent/resources/files/Archivo Plano Usuarios.xlsx
+++ b/WebContent/resources/files/Archivo Plano Usuarios.xlsx
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
-    <t>Numero Documento</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Gerente</t>
+  </si>
+  <si>
+    <t>Número Documento</t>
   </si>
 </sst>
 </file>
@@ -500,22 +500,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -523,19 +523,19 @@
         <v>1017234823</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -543,19 +543,19 @@
         <v>1152188922</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,19 +563,19 @@
         <v>32140813</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,19 +583,19 @@
         <v>15348866</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,19 +603,19 @@
         <v>43262103</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,19 +623,19 @@
         <v>98666161</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,19 +643,19 @@
         <v>43627061</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,19 +663,19 @@
         <v>3438366</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,19 +683,19 @@
         <v>98558592</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
